--- a/simulation_data/iterative_algorithm/i_error_level_4_percent_water_60.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_4_percent_water_60.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.7548969150558</v>
+        <v>90.48636523571409</v>
       </c>
       <c r="D2" t="n">
-        <v>5.752416358872404</v>
+        <v>6.082094355642337</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.78176084297223</v>
+        <v>88.01428523847282</v>
       </c>
       <c r="D3" t="n">
-        <v>5.518822755079091</v>
+        <v>6.113642795102598</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.26400957210789</v>
+        <v>87.56732606427897</v>
       </c>
       <c r="D4" t="n">
-        <v>5.519734722960646</v>
+        <v>5.565870036550218</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.95127520132357</v>
+        <v>86.1138817149594</v>
       </c>
       <c r="D5" t="n">
-        <v>5.282264054909361</v>
+        <v>5.635787440381439</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.31000127044868</v>
+        <v>86.72664329837224</v>
       </c>
       <c r="D6" t="n">
-        <v>5.852028847492573</v>
+        <v>5.778391837153731</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.29424588361921</v>
+        <v>85.61832134263697</v>
       </c>
       <c r="D7" t="n">
-        <v>5.156583306568293</v>
+        <v>5.929287636874465</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.51290711724096</v>
+        <v>82.84906470595968</v>
       </c>
       <c r="D8" t="n">
-        <v>5.822522784892612</v>
+        <v>5.175179185520297</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.35331560919055</v>
+        <v>82.28230190358843</v>
       </c>
       <c r="D9" t="n">
-        <v>5.171450309726576</v>
+        <v>5.770316349245975</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.48704330144049</v>
+        <v>82.73664802470361</v>
       </c>
       <c r="D10" t="n">
-        <v>6.089651637809746</v>
+        <v>6.261273683050024</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.06299062882258</v>
+        <v>80.22870452691254</v>
       </c>
       <c r="D11" t="n">
-        <v>6.51681230231308</v>
+        <v>5.680853212361249</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.51919188583507</v>
+        <v>79.79350625082992</v>
       </c>
       <c r="D12" t="n">
-        <v>5.146630129381859</v>
+        <v>4.835597113995992</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.33854328971124</v>
+        <v>78.4431078599731</v>
       </c>
       <c r="D13" t="n">
-        <v>5.330530100580678</v>
+        <v>6.229412615105061</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.30802037486995</v>
+        <v>78.61803390686066</v>
       </c>
       <c r="D14" t="n">
-        <v>5.950126429799615</v>
+        <v>5.545220417989992</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.78172450362369</v>
+        <v>76.69658456888203</v>
       </c>
       <c r="D15" t="n">
-        <v>6.100913235715314</v>
+        <v>6.147710790522314</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.5662967814406</v>
+        <v>75.27883060822035</v>
       </c>
       <c r="D16" t="n">
-        <v>6.120058618157749</v>
+        <v>5.462961297293657</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.67507346272933</v>
+        <v>74.32359079826736</v>
       </c>
       <c r="D17" t="n">
-        <v>6.715735666161104</v>
+        <v>4.997126144993159</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.85937660301862</v>
+        <v>74.42084219353866</v>
       </c>
       <c r="D18" t="n">
-        <v>6.020630112711181</v>
+        <v>5.123997520602515</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.9088652973017</v>
+        <v>73.15024547818109</v>
       </c>
       <c r="D19" t="n">
-        <v>6.036901435818671</v>
+        <v>5.327583746522334</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.47767298304507</v>
+        <v>72.63324833113201</v>
       </c>
       <c r="D20" t="n">
-        <v>5.657677940497087</v>
+        <v>5.962124887363892</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.23145575991084</v>
+        <v>70.73717031423658</v>
       </c>
       <c r="D21" t="n">
-        <v>6.136479589943633</v>
+        <v>4.752472006360572</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.13795870295944</v>
+        <v>69.00872584474915</v>
       </c>
       <c r="D22" t="n">
-        <v>6.22216809490172</v>
+        <v>5.986371166885746</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>70.07373998246719</v>
+        <v>68.72609932287901</v>
       </c>
       <c r="D23" t="n">
-        <v>6.302588824012934</v>
+        <v>4.951550974025675</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>69.18036563691136</v>
+        <v>68.34280605688338</v>
       </c>
       <c r="D24" t="n">
-        <v>5.624657798379311</v>
+        <v>5.483651974420702</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.13087801698228</v>
+        <v>67.47827571229415</v>
       </c>
       <c r="D25" t="n">
-        <v>6.165915693920445</v>
+        <v>6.11518339227246</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.13830771523183</v>
+        <v>65.57221876710203</v>
       </c>
       <c r="D26" t="n">
-        <v>5.289042159117503</v>
+        <v>4.964187071017668</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.61463227759872</v>
+        <v>64.64460487675979</v>
       </c>
       <c r="D27" t="n">
-        <v>5.661591041794843</v>
+        <v>6.011072809305298</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.31137770514825</v>
+        <v>64.08957721953875</v>
       </c>
       <c r="D28" t="n">
-        <v>5.50088650447723</v>
+        <v>5.702595039569072</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.36545136368122</v>
+        <v>62.42195478751287</v>
       </c>
       <c r="D29" t="n">
-        <v>6.118775128000861</v>
+        <v>5.185928712494318</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.67366415593116</v>
+        <v>61.72668884412161</v>
       </c>
       <c r="D30" t="n">
-        <v>5.645938927744557</v>
+        <v>5.53160813009841</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.61931695643296</v>
+        <v>61.54059784750029</v>
       </c>
       <c r="D31" t="n">
-        <v>5.713634412969719</v>
+        <v>5.178195536735402</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.15841336261056</v>
+        <v>59.84236806643138</v>
       </c>
       <c r="D32" t="n">
-        <v>6.278938581640072</v>
+        <v>6.096727702909051</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.08593831737227</v>
+        <v>57.96723667578993</v>
       </c>
       <c r="D33" t="n">
-        <v>5.992976770868846</v>
+        <v>6.264840765979033</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.64457805438361</v>
+        <v>58.76440594369141</v>
       </c>
       <c r="D34" t="n">
-        <v>5.54731154452129</v>
+        <v>4.960430290880093</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>55.45494155539873</v>
+        <v>57.61934524018375</v>
       </c>
       <c r="D35" t="n">
-        <v>6.335485905211537</v>
+        <v>5.601465390052978</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.71171717157956</v>
+        <v>55.99764954225083</v>
       </c>
       <c r="D36" t="n">
-        <v>5.649536937959226</v>
+        <v>5.182887424061983</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>53.85610890653395</v>
+        <v>55.29173950068117</v>
       </c>
       <c r="D37" t="n">
-        <v>5.543202049729803</v>
+        <v>5.67135115583311</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.09918992732827</v>
+        <v>53.29714899944657</v>
       </c>
       <c r="D38" t="n">
-        <v>5.686799938209362</v>
+        <v>6.455817113794917</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.71099645973676</v>
+        <v>52.61456330273315</v>
       </c>
       <c r="D39" t="n">
-        <v>5.15502721513065</v>
+        <v>5.816689455624667</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.66569362911553</v>
+        <v>51.11470750456894</v>
       </c>
       <c r="D40" t="n">
-        <v>6.505486271049357</v>
+        <v>5.370096830289088</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.05472134094855</v>
+        <v>51.36672906096106</v>
       </c>
       <c r="D41" t="n">
-        <v>5.818522843230388</v>
+        <v>5.775955698090687</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.50018096407092</v>
+        <v>49.61815866267509</v>
       </c>
       <c r="D42" t="n">
-        <v>6.516972324879543</v>
+        <v>5.575942538489989</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.23636004789521</v>
+        <v>48.50179775299203</v>
       </c>
       <c r="D43" t="n">
-        <v>5.754267626854371</v>
+        <v>5.719782869924737</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.75063766229054</v>
+        <v>47.33869657507622</v>
       </c>
       <c r="D44" t="n">
-        <v>5.533732695483222</v>
+        <v>4.811095039704487</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.51041153175937</v>
+        <v>46.67316299386473</v>
       </c>
       <c r="D45" t="n">
-        <v>5.657221690437994</v>
+        <v>5.623163662750017</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.83129121582881</v>
+        <v>45.64601674634781</v>
       </c>
       <c r="D46" t="n">
-        <v>6.35379102105838</v>
+        <v>4.85099226002604</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.10589781436637</v>
+        <v>45.38389831334993</v>
       </c>
       <c r="D47" t="n">
-        <v>6.093785102859155</v>
+        <v>6.237353092191188</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.65827151177169</v>
+        <v>43.97800037010457</v>
       </c>
       <c r="D48" t="n">
-        <v>5.55197735877625</v>
+        <v>6.224935963531515</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.40735318910748</v>
+        <v>43.02932906985392</v>
       </c>
       <c r="D49" t="n">
-        <v>6.156328394225172</v>
+        <v>5.547862231381765</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.03816258357216</v>
+        <v>41.5410830060578</v>
       </c>
       <c r="D50" t="n">
-        <v>5.257139485046871</v>
+        <v>5.7531320007273</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.88932310071387</v>
+        <v>40.90608915857675</v>
       </c>
       <c r="D51" t="n">
-        <v>6.454520298201661</v>
+        <v>5.115087655385437</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.63641382758777</v>
+        <v>39.58630749033036</v>
       </c>
       <c r="D52" t="n">
-        <v>5.63317533877859</v>
+        <v>5.944966733487524</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.11962118170187</v>
+        <v>37.95653286871431</v>
       </c>
       <c r="D53" t="n">
-        <v>6.577240339355592</v>
+        <v>5.338774445319954</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>39.34769569663624</v>
+        <v>37.55648063281388</v>
       </c>
       <c r="D54" t="n">
-        <v>5.848982831064464</v>
+        <v>5.678013278471044</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.00914469985869</v>
+        <v>36.89189710911466</v>
       </c>
       <c r="D55" t="n">
-        <v>6.473833461507751</v>
+        <v>5.982476659642669</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.25555061794701</v>
+        <v>36.73761371180728</v>
       </c>
       <c r="D56" t="n">
-        <v>5.846420060959914</v>
+        <v>5.957553175838451</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.41076618558683</v>
+        <v>34.81478397721956</v>
       </c>
       <c r="D57" t="n">
-        <v>5.987980560915094</v>
+        <v>5.775647884852806</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.9061543194664</v>
+        <v>33.98924539904547</v>
       </c>
       <c r="D58" t="n">
-        <v>5.989284633002778</v>
+        <v>5.838304397195385</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.11105587395456</v>
+        <v>32.76439779493522</v>
       </c>
       <c r="D59" t="n">
-        <v>5.959807677713357</v>
+        <v>5.491949078263261</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.79559920721962</v>
+        <v>31.52262249808973</v>
       </c>
       <c r="D60" t="n">
-        <v>6.699941500445053</v>
+        <v>5.35535191264142</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.80650249072096</v>
+        <v>30.89704726566283</v>
       </c>
       <c r="D61" t="n">
-        <v>5.749385029331517</v>
+        <v>6.555594596502948</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.83638779386605</v>
+        <v>29.60593178853391</v>
       </c>
       <c r="D62" t="n">
-        <v>6.11649673415538</v>
+        <v>6.053735929405116</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.5393762122229</v>
+        <v>28.38708433077373</v>
       </c>
       <c r="D63" t="n">
-        <v>6.204229769989676</v>
+        <v>6.288116253256812</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.21574386172536</v>
+        <v>27.57447946822291</v>
       </c>
       <c r="D64" t="n">
-        <v>6.41397023078419</v>
+        <v>6.170042444611962</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.70041269415939</v>
+        <v>26.43940561769861</v>
       </c>
       <c r="D65" t="n">
-        <v>6.367945003626711</v>
+        <v>5.500528285016459</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.60940586081334</v>
+        <v>26.274677003272</v>
       </c>
       <c r="D66" t="n">
-        <v>6.220472137664101</v>
+        <v>6.075577048633479</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.53709809704675</v>
+        <v>25.03733433365375</v>
       </c>
       <c r="D67" t="n">
-        <v>5.754961617110904</v>
+        <v>6.336707806591244</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.25418257126559</v>
+        <v>24.05125300709652</v>
       </c>
       <c r="D68" t="n">
-        <v>5.930383297926746</v>
+        <v>5.66189985733688</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.04282281380117</v>
+        <v>23.34482824806457</v>
       </c>
       <c r="D69" t="n">
-        <v>5.735038017249585</v>
+        <v>6.692517689541312</v>
       </c>
     </row>
   </sheetData>
